--- a/StoreManagement.Website/Resource/ExportedTemplate/Suppliers.xlsx
+++ b/StoreManagement.Website/Resource/ExportedTemplate/Suppliers.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:G1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
